--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/99/word_level_predictions_99.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1074,208 +1074,208 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3414,208 +3414,208 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>37</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>38</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/99/word_level_predictions_99.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1074,208 +1074,208 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Only</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>infrared</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>sensors</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3414,208 +3414,208 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
